--- a/output.xlsx
+++ b/output.xlsx
@@ -497,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nguyễn Văn A</t>
+          <t>Huỳnh Thái Bảo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>99kk</t>
+          <t>78A2229</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>78uu</t>
+          <t>99C15648</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nguyễn Văn B</t>
+          <t>Phạm Phi Yến</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -599,8 +599,10 @@
           <t>Thanh Xuân</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>88</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>29A12345</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -636,7 +638,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trần Thị C</t>
+          <t>Phan Kim Ngân</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,8 +646,10 @@
           <t>Đống Đa</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>363636</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30C0246</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
